--- a/data/df_committee.xlsx
+++ b/data/df_committee.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\midsummer-sittning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF5615-3778-4AF4-9F5B-D7AF40504CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B649FB2D-F66B-4D99-AC43-0384B521D056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_committee" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>person</t>
   </si>
@@ -85,9 +96,6 @@
     <t>Sofija Laurencikaite</t>
   </si>
   <si>
-    <t>Damla</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -101,6 +109,15 @@
   </si>
   <si>
     <t>international@lundaekonomerna.se</t>
+  </si>
+  <si>
+    <t>Damla Akkemik</t>
+  </si>
+  <si>
+    <t>Photographer &lt;3</t>
+  </si>
+  <si>
+    <t>Sebastian Persson</t>
   </si>
 </sst>
 </file>
@@ -941,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +972,7 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1005,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1014,6 +1031,9 @@
         <v>1</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="K2">
@@ -1028,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1037,6 +1057,9 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="K3">
@@ -1051,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1060,6 +1083,9 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="K4">
@@ -1074,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1083,6 +1109,9 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="K5">
@@ -1097,12 +1126,15 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
       <c r="K6">
@@ -1117,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1126,6 +1158,9 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="K7">
@@ -1140,7 +1175,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1148,7 +1183,7 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
@@ -1160,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1171,7 +1206,7 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
@@ -1183,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1192,6 +1227,9 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
@@ -1200,14 +1238,14 @@
         <v>95</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="F11">
         <v>1</v>
       </c>
@@ -1217,7 +1255,56 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
     </row>
